--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire - responses.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire - responses.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Időbélyeg</t>
   </si>
@@ -38,18 +38,28 @@
   </si>
   <si>
     <t>Q2f Teljes kutatási protokoll megtervezése, amely legalább emberi szintű validitást biztosít a belőle levont tudományos következtetéseknek</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>Nem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,9 +75,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -129,6 +145,93 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>43538.5849275463</v>
+      </c>
+      <c r="B2" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>43538.585747881945</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>43538.58619202547</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>999.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>999.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>999.0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>999.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gdrive/Go_real_time_data/Go real-time demo questionnaire - responses.xlsx
+++ b/gdrive/Go_real_time_data/Go real-time demo questionnaire - responses.xlsx
@@ -22,19 +22,19 @@
     <t>Q1. Ön szerint lehetséges lesz-e valaha teljesen automatizálni a tudományos folyamatot</t>
   </si>
   <si>
-    <t>Q2a Adatgyűjtés</t>
-  </si>
-  <si>
-    <t>Q2b Adatelemzés</t>
-  </si>
-  <si>
-    <t>Q2c A statisztikai eredmények alapján valid tudományos konklúziók levonása (konfirmátoros kutatásban)</t>
-  </si>
-  <si>
-    <t>Q2d Eredmények bemutatása tudományos publikáció formájában</t>
-  </si>
-  <si>
-    <t>Q2e Tudományos szempontból (emberi kutatók értékelése alapján is) érdekes kutatási kérdés feltevése</t>
+    <t>Q2a. Adatgyűjtés</t>
+  </si>
+  <si>
+    <t>Q2b. Adatelemzés</t>
+  </si>
+  <si>
+    <t>Q2c. A statisztikai eredmények alapján valid tudományos konklúziók levonása (konfirmátoros kutatásban)</t>
+  </si>
+  <si>
+    <t>Q2d. Eredmények bemutatása tudományos publikáció formájában</t>
+  </si>
+  <si>
+    <t>Q2e. Tudományos szempontból (emberi kutatók értékelése alapján is) érdekes kutatási kérdés feltevése</t>
   </si>
   <si>
     <t>Q2f Teljes kutatási protokoll megtervezése, amely legalább emberi szintű validitást biztosít a belőle levont tudományos következtetéseknek</t>
@@ -79,10 +79,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -123,19 +123,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -146,89 +146,89 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>43538.5849275463</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2">
+        <v>43538.584927696764</v>
+      </c>
+      <c r="B2" s="1">
         <v>36.0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>8.0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>12.0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>15.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>40.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>25.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>43538.585747881945</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2">
+        <v>43538.58574804398</v>
+      </c>
+      <c r="B3" s="1">
         <v>25.0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>2.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2.0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>10.0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>5.0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>15.0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>43538.58619202547</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2">
+        <v>43538.58619215278</v>
+      </c>
+      <c r="B4" s="1">
         <v>50.0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>20.0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>30.0</v>
       </c>
-      <c r="F4" s="2">
-        <v>999.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>999.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>999.0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="F4" s="1">
+        <v>999.0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>999.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>999.0</v>
+      </c>
+      <c r="I4" s="1">
         <v>999.0</v>
       </c>
     </row>
